--- a/food_groups/condiment.xlsx
+++ b/food_groups/condiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{434D25F7-2019-4391-8C67-DF1D32340F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9E75AF-124B-4D85-B476-8ED237D6D566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{634A6E0C-61BE-45E3-A508-0DAA9C302DC7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>property</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>healthy</t>
+  </si>
+  <si>
+    <t>food super group</t>
+  </si>
+  <si>
+    <t>condiment</t>
   </si>
 </sst>
 </file>
@@ -402,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD211B5D-1295-43E3-9F0C-EB42CF92ADAD}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,6 +456,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
